--- a/保守性_DB.xlsx
+++ b/保守性_DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5726dd6ae77f066/デスクトップ/中島研/ex1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5726dd6ae77f066/デスクトップ/agile_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_E84A74E1348A88D4AA7B03EF87A4984500FEBE18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80F1E707-32A2-43F3-BA6B-6D1B3FAA70A5}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FBFF41A3BEC773933A013C4D0FCF583D8619F29F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E80B01-AC02-4813-8859-E7F8CDC3FB12}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQuaRE" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="architecture" sheetId="4" r:id="rId4"/>
     <sheet name="request" sheetId="5" r:id="rId5"/>
     <sheet name="category_base" sheetId="6" r:id="rId6"/>
-    <sheet name="architecture_log" sheetId="8" r:id="rId7"/>
-    <sheet name="request_log" sheetId="7" r:id="rId8"/>
+    <sheet name="architecture_log" sheetId="7" r:id="rId7"/>
+    <sheet name="request_log" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="354">
   <si>
     <t>id</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>障がい者向け携帯電話</t>
-  </si>
-  <si>
-    <t>ログ</t>
   </si>
   <si>
     <t>副特性名</t>
@@ -279,7 +276,7 @@
     <t>モジュールの汎用化</t>
   </si>
   <si>
-    <t>モジュールを要求仕様やH/W構成などの影響を排除し、より一般的な定義とする事で汎用性・流用性を高める。</t>
+    <t>モジュールを要求仕様やH/W構成などの影響を排除し、より一般的な定義とする事で汎用性や流用性を高める。</t>
   </si>
   <si>
     <t>○他のシステムへ流用出来るモジュールが増える事で開発コストの低減が見込まれる。
@@ -327,7 +324,7 @@
     <t>情報隠蔽</t>
   </si>
   <si>
-    <t>あるモジュールが管理する振る舞い（状態）やデータに対して外部からの直接アクセスを抑制することで、内部で隠蔽するデータ・振る舞いに影響が生じるのを防ぐ。</t>
+    <t>あるモジュールが管理する振る舞い（状態）やデータに対して外部からの直接アクセスを抑制することで、内部で隠蔽するデータや振る舞いに影響が生じるのを防ぐ。</t>
   </si>
   <si>
     <t>○外部からの直接アクセスによる内部データの変更を防げる。
@@ -384,7 +381,7 @@
     <t>A006</t>
   </si>
   <si>
-    <t>[ポイント] 修正個所や影響範囲を局所化することで、実装・テストにかかるコストを削減する。
+    <t>[ポイント] 修正個所や影響範囲を局所化することで、実装やテストにかかるコストを削減する。
 [個別戦略の利用法]
 プラットフォームの選択や設計段階で、変更の及ぶ範囲が少なくなるよう考慮することで、変更箇所の局所化を図る</t>
   </si>
@@ -397,7 +394,7 @@
     <t>共通サービスの抽出</t>
   </si>
   <si>
-    <t>共通的な機能・処理を抜き出し、モジュール化する事で再利用性を高める。</t>
+    <t>共通的な機能や処理を抜き出し、モジュール化する事で再利用性を高める。</t>
   </si>
   <si>
     <t>○共通機能を利用する事で生産量を抑える事が出来る。
@@ -451,7 +448,7 @@
     <t>A009</t>
   </si>
   <si>
-    <t>[ポイント] 修正個所や影響範囲を局所化することで、実装・テストにかかるコストを削減する。
+    <t>[ポイント] 修正個所や影響範囲を局所化することで、実装やテストにかかるコストを削減する。
 [個別戦略の利用法]
 モジュールの修正が発生する場合は、修正個所を局所化することで連鎖反応の防止を行う。
 モジュールのロード時、実行時では、バインディング時期の遅延を考慮した配置を行う事で、システムの振る舞いの変更を容易な物とする。</t>
@@ -590,8 +587,11 @@
 テストを実施しやすくするために，テスト対象の入出力の記録、テスト用モジュールの利用によりテストを実施しやすくする</t>
   </si>
   <si>
+    <t>記録と再生</t>
+  </si>
+  <si>
     <t>インタフェースを通過する情報を捉え、それをテストハーネスの入力として使用する。通常、動作中にインタフェースを通過する情報は、何らかのリポジトリに保存される。この記録された情報は、あるコンポーネントのテスト用の入力や、再テスト時の差分比較データとして利用する。
-［定義］テストハーネスとは、ソフトウェアテストで用いられるテスト実行用のソフトウェアのこと。テスト対象モジュールを呼び出し、テストケースを適用して、実行を制御・監視し、テスト結果のレポートを行う。テストドライバやテストスタブなどで構成される。</t>
+［定義］テストハーネスとは、ソフトウェアテストで用いられるテスト実行用のソフトウェアのこと。テスト対象モジュールを呼び出し、テストケースを適用して、実行を制御や監視し、テスト結果のレポートを行う。テストドライバやテストスタブなどで構成される。</t>
   </si>
   <si>
     <t>○インターフェースを確認するテストが容易となる。
@@ -609,6 +609,9 @@
     <t>A016</t>
   </si>
   <si>
+    <t>実装とインタフェースの分離</t>
+  </si>
+  <si>
     <t>インターフェースと実装の分離することで、様々なテストに対して、実装を入れ替え、テストを行う。また、コンポーネントに欠陥がある場合は、そのコンポーネントをスタブや、テストハーネスとして機能する特別なコンポーネントに置き換えることで、残りのテストが継続可能となる。</t>
   </si>
   <si>
@@ -623,6 +626,9 @@
   </si>
   <si>
     <t>A017</t>
+  </si>
+  <si>
+    <t>特殊なアクセス経路/インタフェース</t>
   </si>
   <si>
     <t xml:space="preserve">テスト用の特別なインタフェースを利用することで、コンポーネントの変数やその仕様を得ることが、通常の実行とは独立して、テストハーネスを通じて可能になる。
@@ -648,6 +654,9 @@
     <t>内部監視
 [説明]
 インターフェイスを通じ、状態、性能負荷、容量、セキュリティ性などの情報を取得できるようにし、テストプロセスの支援を実現する。</t>
+  </si>
+  <si>
+    <t>組み込まれた監視</t>
   </si>
   <si>
     <t>内部の状態を監視する機能を組み込み、テストをサポートする。</t>
@@ -698,6 +707,9 @@
     <t>モジュール凝集度を上げる</t>
   </si>
   <si>
+    <t>サイクロマティック複雑度の適切性</t>
+  </si>
+  <si>
     <t>サイクロマティック複雑度を受容できるソフトウェアモジュールは，どれくらい多いか。</t>
   </si>
   <si>
@@ -715,6 +727,9 @@
     <t>システムの構成要素の独立性を高める</t>
   </si>
   <si>
+    <t>構成要素結合度</t>
+  </si>
+  <si>
     <t xml:space="preserve">構成要素の独立性はどれくらい強いか，かつ，システム又はコンピュータプログラム中の他の構成要素への変更による影響がない構成要素は，どれくらい多いか。 </t>
   </si>
   <si>
@@ -729,6 +744,9 @@
   </si>
   <si>
     <t>再利用可能なコンポーネントの数を増やす</t>
+  </si>
+  <si>
+    <t>資産の再利用性</t>
   </si>
   <si>
     <t>再利用できるシステム内の資産の数は，どれくらい多いか。</t>
@@ -1141,9 +1159,6 @@
     <t>稼働中のシステムの運用保守を円滑にするために，テスト機能完全性 を[目標値]以上にする．</t>
   </si>
   <si>
-    <t>記録と再生</t>
-  </si>
-  <si>
     <t>R025</t>
   </si>
   <si>
@@ -1164,9 +1179,6 @@
     <t>システムを独立した状態で試験できるために，自律的テスト性を[目標値]以上にする．</t>
   </si>
   <si>
-    <t>実装とインタフェースの分離</t>
-  </si>
-  <si>
     <t>R026</t>
   </si>
   <si>
@@ -1207,9 +1219,6 @@
     <t>テスト実施・停止・再開の自由度をあげるために，テスト再開始性を[目標値]以上にする．</t>
   </si>
   <si>
-    <t>特殊なアクセス経路/インタフェース</t>
-  </si>
-  <si>
     <t>R028</t>
   </si>
   <si>
@@ -1250,91 +1259,7 @@
     <t>内部監視をしやすくするために，内部監視実装率を[目標値]以上にする．</t>
   </si>
   <si>
-    <t>組み込まれた監視</t>
-  </si>
-  <si>
-    <t>モジュール性</t>
-    <rPh sb="5" eb="6">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>組み込まれた監視</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊なアクセス経路/インタフェース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実装とインタフェースの分離</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>記録と再生</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>定義プロトコルを遵守</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入出力の管理
-[説明]
-テストを実施しやすくするために，テスト対象の入出力の記録、テスト用モジュールの利用によりテストを実施しやすくする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>時間</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>副特性</t>
-    <rPh sb="0" eb="3">
-      <t>フクトクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>貢献度</t>
-    <rPh sb="0" eb="3">
-      <t>コウケンド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>目標値</t>
-    <rPh sb="0" eb="3">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>構成要素結合度</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資産の再利用性</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイクロマティック複雑度の適切性</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1982,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2145,30 +2070,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
+      <c r="B7" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2181,7 +2083,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2191,24 +2093,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -2216,13 +2118,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -2230,13 +2132,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -2244,13 +2146,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -2258,13 +2160,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -2280,9 +2182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2302,54 +2204,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="283.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>44</v>
@@ -2358,62 +2260,62 @@
         <v>44</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="283.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="283.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>44</v>
@@ -2422,30 +2324,30 @@
         <v>44</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="283.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>44</v>
@@ -2454,62 +2356,62 @@
         <v>44</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="283.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>351</v>
+        <v>44</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>45</v>
@@ -2518,30 +2420,30 @@
         <v>45</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="11" customFormat="1" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>45</v>
@@ -2550,30 +2452,30 @@
         <v>45</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>122</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>46</v>
@@ -2582,30 +2484,30 @@
         <v>46</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>47</v>
@@ -2614,30 +2516,30 @@
         <v>47</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>47</v>
@@ -2646,30 +2548,30 @@
         <v>47</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>47</v>
@@ -2678,30 +2580,30 @@
         <v>47</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>47</v>
@@ -2710,30 +2612,30 @@
         <v>47</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>47</v>
@@ -2742,30 +2644,30 @@
         <v>47</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>356</v>
-      </c>
       <c r="E15" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>47</v>
@@ -2774,21 +2676,21 @@
         <v>47</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>357</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>355</v>
+        <v>157</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>158</v>
@@ -2806,7 +2708,7 @@
         <v>48</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2814,22 +2716,22 @@
         <v>161</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D17" s="9" t="s">
-        <v>354</v>
+        <v>162</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>48</v>
@@ -2838,30 +2740,30 @@
         <v>48</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>353</v>
+        <v>167</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>48</v>
@@ -2870,30 +2772,30 @@
         <v>48</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="284.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>352</v>
+        <v>173</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>48</v>
@@ -2902,7 +2804,7 @@
         <v>48</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>366</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
@@ -2943,66 +2845,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>365</v>
+        <v>187</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="7">
         <v>0</v>
@@ -3012,31 +2914,31 @@
     </row>
     <row r="3" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>363</v>
+        <v>193</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J3" s="8">
         <v>0</v>
@@ -3046,31 +2948,31 @@
     </row>
     <row r="4" spans="1:12" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="8">
         <v>0</v>
@@ -3080,31 +2982,31 @@
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>45</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J5" s="8">
         <v>0</v>
@@ -3112,31 +3014,31 @@
     </row>
     <row r="6" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -3144,31 +3046,31 @@
     </row>
     <row r="7" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -3176,31 +3078,31 @@
     </row>
     <row r="8" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -3208,31 +3110,31 @@
     </row>
     <row r="9" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -3240,31 +3142,31 @@
     </row>
     <row r="10" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -3272,31 +3174,31 @@
     </row>
     <row r="11" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
@@ -3304,31 +3206,31 @@
     </row>
     <row r="12" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>46</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J12" s="8">
         <v>0</v>
@@ -3336,31 +3238,31 @@
     </row>
     <row r="13" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J13" s="8">
         <v>0</v>
@@ -3368,31 +3270,31 @@
     </row>
     <row r="14" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J14" s="8">
         <v>0</v>
@@ -3400,31 +3302,31 @@
     </row>
     <row r="15" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J15" s="8">
         <v>0</v>
@@ -3432,31 +3334,31 @@
     </row>
     <row r="16" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="8">
         <v>0</v>
@@ -3464,31 +3366,31 @@
     </row>
     <row r="17" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J17" s="8">
         <v>0</v>
@@ -3496,31 +3398,31 @@
     </row>
     <row r="18" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J18" s="8">
         <v>0</v>
@@ -3528,31 +3430,31 @@
     </row>
     <row r="19" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
@@ -3560,31 +3462,31 @@
     </row>
     <row r="20" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="8">
         <v>0</v>
@@ -3592,31 +3494,31 @@
     </row>
     <row r="21" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" s="8">
         <v>0</v>
@@ -3624,31 +3526,31 @@
     </row>
     <row r="22" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="8">
         <v>0</v>
@@ -3656,31 +3558,31 @@
     </row>
     <row r="23" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="8">
         <v>0</v>
@@ -3688,31 +3590,31 @@
     </row>
     <row r="24" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>47</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="8">
         <v>0</v>
@@ -3720,31 +3622,31 @@
     </row>
     <row r="25" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>317</v>
+        <v>157</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J25" s="8">
         <v>0</v>
@@ -3752,31 +3654,31 @@
     </row>
     <row r="26" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J26" s="8">
         <v>0</v>
@@ -3784,31 +3686,31 @@
     </row>
     <row r="27" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>324</v>
+        <v>162</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J27" s="8">
         <v>0</v>
@@ -3816,31 +3718,31 @@
     </row>
     <row r="28" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J28" s="8">
         <v>0</v>
@@ -3848,31 +3750,31 @@
     </row>
     <row r="29" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J29" s="8">
         <v>0</v>
@@ -3880,31 +3782,31 @@
     </row>
     <row r="30" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J30" s="8">
         <v>0</v>
@@ -4089,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C57AC3F-557F-48E5-B864-202A23F367E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4100,16 +4002,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4119,7 +4021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6CFFFD-5969-40C4-8B60-D33F09A6A55F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4130,24 +4032,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>362</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/保守性_DB.xlsx
+++ b/保守性_DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5726dd6ae77f066/デスクトップ/web_APU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5726dd6ae77f066/デスクトップ/agile_development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="11_FBFF41A3BEC773933A013C4D0FCF583D8619F29F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{396D9F70-1F4E-4D06-965B-187F8BD44F36}"/>
+  <xr:revisionPtr revIDLastSave="848" documentId="11_FBFF41A3BEC773933A013C4D0FCF583D8619F29F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56399D4C-1E4D-4BF4-8EA9-150C8FE8E317}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -247,12 +247,6 @@
   </si>
   <si>
     <t>A009</t>
-  </si>
-  <si>
-    <t>[ポイント] 修正個所や影響範囲を局所化することで、実装やテストにかかるコストを削減する。
-[個別戦略の利用法]
-モジュールの修正が発生する場合は、修正個所を局所化することで連鎖反応の防止を行う。
-モジュールのロード時、実行時では、バインディング時期の遅延を考慮した配置を行う事で、システムの振る舞いの変更を容易な物とする。</t>
   </si>
   <si>
     <t>既存インタフェースの維持</t>
@@ -304,9 +298,6 @@
 入出力の管理によりコンポーネントの内部状態と入力を制御できるようにし，テストの容易性を高め、内部監視により状態を監視できるようにし，テストに利用する</t>
   </si>
   <si>
-    <t>記録と再生</t>
-  </si>
-  <si>
     <t>A016</t>
   </si>
   <si>
@@ -324,13 +315,6 @@
   </si>
   <si>
     <t>A017</t>
-  </si>
-  <si>
-    <t>○開発言語によっては、デバッガ機能として実装されており、適用が容易。
-×テスト用のインターフェースを有効にした場合と、無効にした場合で動作に差異が生じる可能性があり、テストパターンを増加する可能性がある。
-×テスト用のインターフェースをサポートしていない開発言語の場合、実現にコストがかかる。
-[前提条件]
-特になし</t>
   </si>
   <si>
     <t>組み込まれた監視</t>
@@ -372,27 +356,7 @@
     <t>R001</t>
   </si>
   <si>
-    <t>モジュール凝集度を上げる</t>
-  </si>
-  <si>
-    <t>サイクロマティック複雑度の適切性</t>
-  </si>
-  <si>
-    <t>サイクロマティック複雑度を受容できるソフトウェアモジュールは，どれくらい多いか。</t>
-  </si>
-  <si>
-    <t>X＝1−A/B 
-・A＝明示されたしきい値を超えるサイクロマティック複雑度の点数があるソフトウェアモジュール数
-・B＝実装されたソフトウェアモジュール数</t>
-  </si>
-  <si>
-    <t>モジュール凝集度を上げるために，サイクロマティック複雑度の適切性（適応範囲，閾値）を[目標値]以上にする．</t>
-  </si>
-  <si>
     <t>R002</t>
-  </si>
-  <si>
-    <t>システムの構成要素の独立性を高める</t>
   </si>
   <si>
     <t>構成要素結合度</t>
@@ -792,35 +756,7 @@
     <t>R027</t>
   </si>
   <si>
-    <t>テスト実施・停止・再開の自由度をあげる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト再開始性 </t>
-  </si>
-  <si>
-    <t>保守後にテストを再度開始する箇所から運用テストの実行がどれくらい容易か</t>
-  </si>
-  <si>
-    <t>X = A/B 
-・A= 保守者が,少しずつ確認するために希望した箇所でテスト運転実行を一時停止及び再開できるケース数
-・B= 一時停止が可能なテスト運転実行のケース数</t>
-  </si>
-  <si>
-    <t>テスト実施・停止・再開の自由度をあげるために，テスト再開始性を[目標値]以上にする．</t>
-  </si>
-  <si>
     <t>R028</t>
-  </si>
-  <si>
-    <t>テストの自動化率</t>
-  </si>
-  <si>
-    <t>どれくらいテストが自動化されているか</t>
-  </si>
-  <si>
-    <t>X=A/B 
-・A=テスト自動化数
-・B=テストケースの総数</t>
   </si>
   <si>
     <t>R029</t>
@@ -1354,6 +1290,1066 @@
     <t>R030</t>
   </si>
   <si>
+    <t>親</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポリモフィズム</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>保守性</t>
+    <rPh sb="0" eb="3">
+      <t>ホシュセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュールの汎用化</t>
+    <rPh sb="6" eb="9">
+      <t>ハンヨウカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>情報隠蔽</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インペイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>仲介の利用</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>モジュールの汎用化率</t>
+    <rPh sb="6" eb="10">
+      <t>ハンヨウカリツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュールの汎用性を高めるため、一般化されたモジュールはどれだけあるか。</t>
+    <rPh sb="6" eb="9">
+      <t>ハンヨウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>イッパンカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>情報隠蔽率</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インペイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>重要データの変更を防止する</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ボウシ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>重要なデータが変更されないようになっているのはどれくらいか。</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュール間の影響を最小限にする</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サイショウゲン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>仲介の利用率</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リヨウリツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュール間のやり取りに，どれだけ仲介できているか</t>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チュウカイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>重要データの変更を防止するために，情報隠蔽率を[目標値]以上にする．</t>
+    <rPh sb="24" eb="27">
+      <t>モクヒョウチ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュール間の影響を最小限にするために、仲介の利用率を[目標値]以上にする。</t>
+    <rPh sb="20" eb="22">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>リヨウリツ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モクヒョウチ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>R031</t>
+  </si>
+  <si>
+    <t>R032</t>
+  </si>
+  <si>
+    <t>R033</t>
+  </si>
+  <si>
+    <t>共通サービスの抽出</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験性</t>
+    <rPh sb="0" eb="3">
+      <t>シケンセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ポリモフィズム使用率</t>
+    <rPh sb="7" eb="10">
+      <t>シヨウリツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュールを要求仕様やH/W構成などの影響を排除し、より一般的な定義とする事で汎用性や流用性を高め、将来起こり得る要求やプラットフォームの変更によるモジュールの変更しやすい部分を識別する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○他のシステムへ流用出来るモジュールが増える事で開発コストの低減が見込まれる。
+○変更の影響を最小に抑えるよう検証出来る
+○凝集度の向上において採用した手法が適切か評価出来る
+×起こり得る変更の推測が十分でないと、変更の自由度が落ちる、冗長なプログラム、性能の低下につながる
+[前提条件]
+プロフラム言語により利用方法に制約が発生する事がある。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>H/W抽象化のレイヤの設計
+インタフェースクラス、抽象クラスの設計
+プロダクトライン
+（フィーチャーモデリング）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>X＝A/B 
+・A＝他の構成要素への影響がないよう実装された構成要素の数
+・B＝独立していることが要求されている，明示された構成要素の数]</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X＝A/B 
+・A＝実際に仲介が使われている箇所数
+・B＝仲介が必要な箇所数</t>
+    <rPh sb="10" eb="12">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チュウカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X＝A/B
+・A=実際にポリモフィズムを使っている数
+・B=ポリモフィズムを使うべき型の数</t>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更箇所の局所化
+・変更により生じる影響が最小となるようにする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連鎖反応の防止
+・ある機能で起きた問題が、他の機能に波及するのを防ぐ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入出力の管理
+・テストを実施しやすくするために，テスト対象の入出力の記録、テスト用モジュールの利用によりテストを実施しやすくする</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内部監視
+・インターフェイスを通じ、状態、性能負荷、容量、セキュリティ性などの情報を取得できるようにし、テストプロセスの支援を実現する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>要求や制約事項（対応可能なプラットホーム等）の影響範囲を押さえ込む</t>
+    <rPh sb="23" eb="25">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バインディング時期の遅延
+・実行する処理や振る舞い決定をできるだけ遅延させる</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同一のメソッドや変数名を、複数のクラスで定義できるようにすること。オブジェクトを切り替える事で、処理を変える事が出来る。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンポーネント間のメッセージ形式を、標準化して実装する。</t>
+    <rPh sb="18" eb="21">
+      <t>ヒョウジュンカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モジュールの汎用性を高める</t>
+    <rPh sb="6" eb="9">
+      <t>ハンヨウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X＝A/B 
+・A＝Bのうち，汎用化されたモジュール数
+・B＝定義された変更点に関連するモジュール数</t>
+    <rPh sb="15" eb="18">
+      <t>ハンヨウカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュールの汎用性を高めるために，モジュールの汎用化率を[目標値]以上にする．</t>
+    <rPh sb="29" eb="32">
+      <t>モクヒョウチ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X＝A/B 
+・A＝Bのうち，内部で隠されているデータ数
+・B＝直接操作されないようにしないといけないデータ数</t>
+    <rPh sb="15" eb="17">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>チョクセツソウサ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ソースコードの可読性を高める</t>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>複数のクラスで定義できるようにする</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>・コーディング規約、用語集
+・モジュール（クラス）の責務の明確化
+・ポリモフィズムや関数のオーバーライド、オーバーロードを利用する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解析性</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更により影響範囲を小さくする</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>エイキョウハンイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更箇所局所化率</t>
+    <rPh sb="0" eb="4">
+      <t>ヘンコウカショ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>キョクショカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更に対する影響範囲がどれくらいか。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エイキョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X=A/B
+・A＝Bのうち，実際に局所化されている数
+・B＝将来変更が予測される箇所数</t>
+    <rPh sb="14" eb="16">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>キョクショカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ショウライ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュールのコーディング品質をあげるために，コーディング規約遵守性を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>変更により影響範囲を小さくするために，変更箇所局所化率を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>選択肢の制限</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>再利用可能なコンポーネントの数を増やすために,資産の再利用性を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ソースコードの可読性を高めるために，プログラムソースコメント率を[目標値]以上にする．</t>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム機能のトレース可能性を高める</t>
+    <rPh sb="15" eb="16">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システム機能のトレース可能性を高めるために，トレースツール利用率を[目標値]以上にする．</t>
+    <rPh sb="15" eb="16">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>記録と再生</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>セット</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>特殊なアクセス経路/インタフェース</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイロ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>試験性</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>記録と再生,特殊なアクセス経路/インタフェース</t>
+    <rPh sb="0" eb="2">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイロ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>外部イベント再生可能率</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カノウリツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X=A/B
+・A= Bのうち，記録再生できる数
+・B= 外部イベントの数</t>
+    <rPh sb="15" eb="17">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テスト環境・データを再利用する</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テスト環境・データを再利用するために，保守環境整備度合い（流用）を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正のしやすさを高める</t>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正のしやすさを高めるために，問題解決までの平均時間を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正のしやすさを高めるために，変更実施の平均時間を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正のしやすさを高めるために，変更履歴記録率を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>（修正の結果の質を判断する）</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>（修正の結果の質を判断する）ために，修正可能性 を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンポーネントと間のメッセージ可読性を高める</t>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カドクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンポーネントと間のメッセージ可読性を高めるために，変更内容文書化率を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テストの労力を減らす</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テストの労力を減らすために，テストの自動化率を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>外部のイベントに対し，記録を行い，それを再生に回すことが出来る割合</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>外部イベントの再生を円滑にする</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エンカツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>外部イベントの再生を円滑にするために，外部イベント再生可能率を[目標値]以上にする</t>
+    <rPh sb="19" eb="21">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サイセイ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>カノウリツ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>モクヒョウチ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正性</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>定義プロトコル遵守率</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジュンシュリツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>○コンポーネントがお互いに定義されたプロトコルを遵守することで、コンポーネントの結合を取りやすくなる。
+×定義プロトコルの設計が悪い場合、後でプロトコルを変更出来ない、効率が落ちる等の副作用が起きることはある。
+[前提条件]
+方式設計によって、利用方法に制約が発生することがある。
+ネットワーク・プロトコルの場合、下位プロトコルに依存して利用出来るプロトコルに制約が発生することがある。</t>
+    <rPh sb="24" eb="26">
+      <t>ジュンシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定義プロトコルを遵守</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンシュ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンポーネント間の結合をしやすくする</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>定義されたプロトコルに対し，どのくらい遵守できているかの割合</t>
+    <rPh sb="0" eb="2">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジュンシュ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X=A/B
+A=Bのうち遵守されている数
+B=定義されたプロトコルの数</t>
+    <rPh sb="12" eb="14">
+      <t>ジュンシュ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンポーネント間の結合をしやすくするために，定義プロトコル遵守率を[目標値]以上にする．</t>
+    <rPh sb="22" eb="24">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ジュンシュリツ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>モクヒョウチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正性</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>修正性</t>
+    <rPh sb="0" eb="3">
+      <t>シュウセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンポーネントの交換率</t>
+    <rPh sb="8" eb="11">
+      <t>コウカンリツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンポーネントの交換</t>
+    <rPh sb="8" eb="10">
+      <t>コウカン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンポーネントの切り替えを正確にする</t>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイカク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X=A/B
+A=Bのうち，実行するコンポーネントの数
+B=処理を変更する引数などの情報の数</t>
+    <rPh sb="13" eb="15">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>コンポーネントの引数などの情報を元に，正確に割り当てられているか</t>
+    <rPh sb="8" eb="10">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実行時バインディング成功率</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>セイコウリツ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実行時に柔軟性を持たせる</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジュウナンセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>どのくらい実行時バインディングが成功しているか</t>
+    <rPh sb="5" eb="8">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">X=A/B
+・A=Bのうち実行時バインディングの数
+・B=変更点の数
+</t>
+    <rPh sb="13" eb="16">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ヘンコウテン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行時に柔軟性を持たせるために，実行時バインディング成功率を[目標値]以上にする</t>
+    <rPh sb="31" eb="34">
+      <t>モクヒョウチ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実行時のバインディング</t>
+    <rPh sb="0" eb="3">
+      <t>ジッコウジ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ポリモフィズムの適切な使用割合</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンポーネントの切り替えを正確にするために，コンポーネントの交換率を[目標値]以上にする</t>
+    <rPh sb="35" eb="38">
+      <t>モクヒョウチ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>R034</t>
+  </si>
+  <si>
+    <t>R035</t>
+  </si>
+  <si>
+    <t>R036</t>
+  </si>
+  <si>
+    <t>R037</t>
+  </si>
+  <si>
+    <t>R038</t>
+  </si>
+  <si>
+    <t>特殊なアクセス経路/インタフェース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>6割</t>
+    <rPh sb="1" eb="2">
+      <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>4割</t>
+    <rPh sb="1" eb="2">
+      <t>ワリ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュール凝集度を上げる</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システムの構成要素の独立性を高める</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>サイクロマティック複雑度の適切性</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>サイクロマティック複雑度を受容できるソフトウェアモジュールは，どれくらい多いか。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X＝1−A/B 
+・A＝明示されたしきい値を超えるサイクロマティック複雑度の点数があるソフトウェアモジュール数
+・B＝実装されたソフトウェアモジュール数</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>モジュール凝集度を上げるために，サイクロマティック複雑度の適切性（適応範囲，閾値）を[目標値]以上にする．</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>[ポイント]
+開発コストのうち40%を占めるテストのコストを軽減するために，アーキテクチャとして組み込む
+[個別戦略の利用法]
+入出力の管理によりコンポーネントの内部状態と入力を制御できるようにし，テストの容易性を高め、内部監視により状態を監視できるようにし，テストに利用する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[ポイント] 修正個所や影響範囲を局所化することで、実装やテストにかかるコストを削減する。
+[個別戦略の利用法]
+モジュールの修正が発生する場合は、修正個所を局所化することで連鎖反応の防止を行う。
+モジュールのロード時、実行時では、バインディング時期の遅延を考慮した配置を行う事で、システムの振る舞いの変更を容易な物とする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <t>複数のクラスで定義出来るようにする</t>
     </r>
@@ -1366,1050 +2362,69 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ために、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>カバレッジ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を[目標値]以上にする</t>
+      <t>ために、ポリモフィズム使用率を[目標値]以上にする</t>
     </r>
     <rPh sb="28" eb="31">
+      <t>シヨウリツ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
       <t>モクヒョウチ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="37" eb="39">
       <t>イジョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>親</t>
-    <rPh sb="0" eb="1">
-      <t>オヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ポリモフィズム</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>保守性</t>
-    <rPh sb="0" eb="3">
-      <t>ホシュセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モジュールの汎用化</t>
-    <rPh sb="6" eb="9">
-      <t>ハンヨウカ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>情報隠蔽</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>インペイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>仲介の利用</t>
-    <rPh sb="0" eb="2">
-      <t>チュウカイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>モジュールの汎用化率</t>
-    <rPh sb="6" eb="10">
-      <t>ハンヨウカリツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モジュールの汎用性を高めるため、一般化されたモジュールはどれだけあるか。</t>
-    <rPh sb="6" eb="9">
-      <t>ハンヨウセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>イッパンカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>情報隠蔽率</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>インペイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>重要データの変更を防止する</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ボウシ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>重要なデータが変更されないようになっているのはどれくらいか。</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モジュール間の影響を最小限にする</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>サイショウゲン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>仲介の利用率</t>
-    <rPh sb="0" eb="2">
-      <t>チュウカイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>リヨウリツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モジュール間のやり取りに，どれだけ仲介できているか</t>
-    <rPh sb="5" eb="6">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>チュウカイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>重要データの変更を防止するために，情報隠蔽率を[目標値]以上にする．</t>
-    <rPh sb="24" eb="27">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モジュール間の影響を最小限にするために、仲介の利用率を[目標値]以上にする。</t>
-    <rPh sb="20" eb="22">
-      <t>チュウカイ</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>リヨウリツ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>R031</t>
-  </si>
-  <si>
-    <t>R032</t>
-  </si>
-  <si>
-    <t>R033</t>
-  </si>
-  <si>
-    <t>共通サービスの抽出</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験性</t>
-    <rPh sb="0" eb="3">
-      <t>シケンセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ポリモフィズム使用率</t>
-    <rPh sb="7" eb="10">
-      <t>シヨウリツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モジュールを要求仕様やH/W構成などの影響を排除し、より一般的な定義とする事で汎用性や流用性を高め、将来起こり得る要求やプラットフォームの変更によるモジュールの変更しやすい部分を識別する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○他のシステムへ流用出来るモジュールが増える事で開発コストの低減が見込まれる。
-○変更の影響を最小に抑えるよう検証出来る
-○凝集度の向上において採用した手法が適切か評価出来る
-×起こり得る変更の推測が十分でないと、変更の自由度が落ちる、冗長なプログラム、性能の低下につながる
+    <t>記録と再生</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実装とインタフェースの分離</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>○開発言語によっては、デバッガ機能として実装されており、適用が容易。
+×テスト用のインターフェースを有効にした場合と、無効にした場合で動作に差異が生じる可能性があり、テストパターンを増加する可能性がある。
+×テスト用のインターフェースをサポートしていない開発言語の場合、実現にコストがかかる。
 [前提条件]
-プロフラム言語により利用方法に制約が発生する事がある。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>H/W抽象化のレイヤの設計
-インタフェースクラス、抽象クラスの設計
-プロダクトライン
-（フィーチャーモデリング）</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>X＝A/B 
-・A＝他の構成要素への影響がないよう実装された構成要素の数
-・B＝独立していることが要求されている，明示された構成要素の数]</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X＝A/B 
-・A＝実際に仲介が使われている箇所数
-・B＝仲介が必要な箇所数</t>
-    <rPh sb="10" eb="12">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>チュウカイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>コスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>チュウカイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X＝A/B
-・A=実際にポリモフィズムを使っている数
-・B=ポリモフィズムを使うべき型の数</t>
-    <rPh sb="25" eb="26">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>変更箇所の局所化
-・変更により生じる影響が最小となるようにする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>連鎖反応の防止
-・ある機能で起きた問題が、他の機能に波及するのを防ぐ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入出力の管理
-・テストを実施しやすくするために，テスト対象の入出力の記録、テスト用モジュールの利用によりテストを実施しやすくする</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>内部監視
-・インターフェイスを通じ、状態、性能負荷、容量、セキュリティ性などの情報を取得できるようにし、テストプロセスの支援を実現する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>要求や制約事項（対応可能なプラットホーム等）の影響範囲を押さえ込む</t>
-    <rPh sb="23" eb="25">
-      <t>エイキョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バインディング時期の遅延
-・実行する処理や振る舞い決定をできるだけ遅延させる</t>
-    <rPh sb="15" eb="17">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>同一のメソッドや変数名を、複数のクラスで定義できるようにすること。オブジェクトを切り替える事で、処理を変える事が出来る。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コンポーネント間のメッセージ形式を、標準化して実装する。</t>
-    <rPh sb="18" eb="21">
-      <t>ヒョウジュンカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モジュールの汎用性を高める</t>
-    <rPh sb="6" eb="9">
-      <t>ハンヨウセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X＝A/B 
-・A＝Bのうち，汎用化されたモジュール数
-・B＝定義された変更点に関連するモジュール数</t>
-    <rPh sb="15" eb="18">
-      <t>ハンヨウカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モジュールの汎用性を高めるために，モジュールの汎用化率を[目標値]以上にする．</t>
-    <rPh sb="29" eb="32">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X＝A/B 
-・A＝Bのうち，内部で隠されているデータ数
-・B＝直接操作されないようにしないといけないデータ数</t>
-    <rPh sb="15" eb="17">
-      <t>ナイブ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>チョクセツソウサ</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ソースコードの可読性を高める</t>
-    <rPh sb="11" eb="12">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>複数のクラスで定義できるようにする</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>・コーディング規約、用語集
-・モジュール（クラス）の責務の明確化
-・ポリモフィズムや関数のオーバーライド、オーバーロードを利用する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解析性</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>変更により影響範囲を小さくする</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>エイキョウハンイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>チイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>変更箇所局所化率</t>
-    <rPh sb="0" eb="4">
-      <t>ヘンコウカショ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>キョクショカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>変更に対する影響範囲がどれくらいか。</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X=A/B
-・A＝Bのうち，実際に局所化されている数
-・B＝将来変更が予測される箇所数</t>
-    <rPh sb="14" eb="16">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>キョクショカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ショウライ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヨソク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>モジュールのコーディング品質をあげるために，コーディング規約遵守性を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>変更により影響範囲を小さくするために，変更箇所局所化率を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>選択肢の制限</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>再利用可能なコンポーネントの数を増やすために,資産の再利用性を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ソースコードの可読性を高めるために，プログラムソースコメント率を[目標値]以上にする．</t>
-    <rPh sb="11" eb="12">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>システム機能のトレース可能性を高める</t>
-    <rPh sb="15" eb="16">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>システム機能のトレース可能性を高めるために，トレースツール利用率を[目標値]以上にする．</t>
-    <rPh sb="15" eb="16">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>記録と再生</t>
-    <rPh sb="0" eb="2">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイセイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>セット</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>特殊なアクセス経路/インタフェース</t>
-    <rPh sb="0" eb="2">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイロ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>試験性</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>記録と再生,特殊なアクセス経路/インタフェース</t>
-    <rPh sb="0" eb="2">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケイロ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>外部イベント再生可能率</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>カノウリツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X=A/B
-・A= Bのうち，記録再生できる数
-・B= 外部イベントの数</t>
-    <rPh sb="15" eb="17">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テスト環境・データを再利用する</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テスト環境・データを再利用するために，保守環境整備度合い（流用）を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>修正のしやすさを高める</t>
-    <rPh sb="8" eb="9">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>修正のしやすさを高めるために，問題解決までの平均時間を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>修正のしやすさを高めるために，変更実施の平均時間を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>修正のしやすさを高めるために，変更履歴記録率を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>（修正の結果の質を判断する）</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>（修正の結果の質を判断する）ために，修正可能性 を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コンポーネントと間のメッセージ可読性を高める</t>
-    <rPh sb="8" eb="9">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カドクセイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コンポーネントと間のメッセージ可読性を高めるために，変更内容文書化率を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テストの労力を減らす</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テストの労力を減らすために，テストの自動化率を[目標値]以上にする．</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>外部のイベントに対し，記録を行い，それを再生に回すことが出来る割合</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>外部イベントの再生を円滑にする</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エンカツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>外部イベントの再生を円滑にするために，外部イベント再生可能率を[目標値]以上にする</t>
-    <rPh sb="19" eb="21">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>サイセイ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>カノウリツ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>修正性</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>定義プロトコル遵守率</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジュンシュリツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>○コンポーネントがお互いに定義されたプロトコルを遵守することで、コンポーネントの結合を取りやすくなる。
-×定義プロトコルの設計が悪い場合、後でプロトコルを変更出来ない、効率が落ちる等の副作用が起きることはある。
-[前提条件]
-方式設計によって、利用方法に制約が発生することがある。
-ネットワーク・プロトコルの場合、下位プロトコルに依存して利用出来るプロトコルに制約が発生することがある。</t>
-    <rPh sb="24" eb="26">
-      <t>ジュンシュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>定義プロトコルを遵守</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュンシュ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コンポーネント間の結合をしやすくする</t>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケツゴウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>定義されたプロトコルに対し，どのくらい遵守できているかの割合</t>
-    <rPh sb="0" eb="2">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジュンシュ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X=A/B
-A=Bのうち遵守されている数
-B=定義されたプロトコルの数</t>
-    <rPh sb="12" eb="14">
-      <t>ジュンシュ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コンポーネント間の結合をしやすくするために，定義プロトコル遵守率を[目標値]以上にする．</t>
-    <rPh sb="22" eb="24">
-      <t>テイギ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ジュンシュリツ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>修正性</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>修正性</t>
-    <rPh sb="0" eb="3">
-      <t>シュウセイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コンポーネントの交換率</t>
-    <rPh sb="8" eb="11">
-      <t>コウカンリツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コンポーネントの交換</t>
-    <rPh sb="8" eb="10">
-      <t>コウカン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コンポーネントの切り替えを正確にする</t>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイカク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>X=A/B
-A=Bのうち，実行するコンポーネントの数
-B=処理を変更する引数などの情報の数</t>
-    <rPh sb="13" eb="15">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>コンポーネントの引数などの情報を元に，正確に割り当てられているか</t>
-    <rPh sb="8" eb="10">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セイカク</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>実行時バインディング成功率</t>
-    <rPh sb="0" eb="3">
-      <t>ジッコウジ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>セイコウリツ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>実行時に柔軟性を持たせる</t>
-    <rPh sb="0" eb="3">
-      <t>ジッコウジ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジュウナンセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>どのくらい実行時バインディングが成功しているか</t>
-    <rPh sb="5" eb="8">
-      <t>ジッコウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t xml:space="preserve">X=A/B
-・A=Bのうち実行時バインディングの数
-・B=変更点の数
-</t>
-    <rPh sb="13" eb="16">
-      <t>ジッコウジ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>ヘンコウテン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実行時に柔軟性を持たせるために，実行時バインディング成功率を[目標値]以上にする</t>
-    <rPh sb="31" eb="34">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>実行時のバインディング</t>
-    <rPh sb="0" eb="3">
-      <t>ジッコウジ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ポリモフィズムの適切な使用割合</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コンポーネントの切り替えを正確にするために，コンポーネントの交換率を[目標値]以上にする</t>
-    <rPh sb="35" eb="38">
-      <t>モクヒョウチ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>R034</t>
-  </si>
-  <si>
-    <t>R035</t>
-  </si>
-  <si>
-    <t>R036</t>
-  </si>
-  <si>
-    <t>R037</t>
-  </si>
-  <si>
-    <t>R038</t>
-  </si>
-  <si>
-    <t>特殊なアクセス経路/インタフェース</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ポリモフィズム使用率,6</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>実行時バインディング成功率,4</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
+特になし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テストの自動化率</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>どれくらいテストが自動化されているか</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X=A/B 
+・A=テスト自動化数
+・B=テストケースの総数</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テスト実施・停止・再開の自由度をあげる</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト再開始性 </t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>保守後にテストを再度開始する箇所から運用テストの実行がどれくらい容易か</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>X = A/B 
+・A= 保守者が,少しずつ確認するために希望した箇所でテスト運転実行を一時停止及び再開できるケース数
+・B= 一時停止が可能なテスト運転実行のケース数</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>テスト実施・停止・再開の自由度をあげるために，テスト再開始性を[目標値]以上にする．</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -2417,7 +2432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2472,14 +2487,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3162,7 +3169,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -3176,7 +3183,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -3190,7 +3197,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
@@ -3204,7 +3211,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -3218,7 +3225,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -3236,8 +3243,8 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3287,22 +3294,22 @@
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>42</v>
@@ -3316,22 +3323,22 @@
         <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>42</v>
@@ -3345,57 +3352,57 @@
         <v>63</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3403,22 +3410,22 @@
         <v>64</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>42</v>
@@ -3432,28 +3439,28 @@
         <v>66</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3461,22 +3468,22 @@
         <v>67</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>44</v>
@@ -3490,28 +3497,28 @@
         <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3519,22 +3526,22 @@
         <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>45</v>
@@ -3545,25 +3552,25 @@
     </row>
     <row r="11" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>45</v>
@@ -3574,25 +3581,25 @@
     </row>
     <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>45</v>
@@ -3603,25 +3610,25 @@
     </row>
     <row r="13" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>45</v>
@@ -3632,54 +3639,54 @@
     </row>
     <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>426</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>84</v>
+        <v>425</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>46</v>
@@ -3690,25 +3697,25 @@
     </row>
     <row r="16" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>84</v>
+        <v>425</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>46</v>
@@ -3719,25 +3726,25 @@
     </row>
     <row r="17" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>91</v>
+        <v>430</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>46</v>
@@ -3748,25 +3755,25 @@
     </row>
     <row r="18" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>46</v>
@@ -3792,9 +3799,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3806,7 +3813,7 @@
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="83.25" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="14.875" customWidth="1"/>
   </cols>
@@ -3816,57 +3823,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -3874,25 +3881,25 @@
     </row>
     <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>102</v>
+        <v>419</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>103</v>
+        <v>421</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>104</v>
+        <v>422</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>105</v>
+        <v>423</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>106</v>
+        <v>424</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>62</v>
@@ -3903,28 +3910,28 @@
     </row>
     <row r="4" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -3932,28 +3939,28 @@
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -3961,25 +3968,25 @@
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>108</v>
+        <v>420</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>65</v>
@@ -3989,55 +3996,55 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>126</v>
+      <c r="A7" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>132</v>
+      <c r="A8" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>43</v>
@@ -4047,84 +4054,84 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>137</v>
+      <c r="A9" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
-        <v>142</v>
+      <c r="A10" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>148</v>
+      <c r="A11" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>44</v>
@@ -4135,25 +4142,25 @@
     </row>
     <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>44</v>
@@ -4164,25 +4171,25 @@
     </row>
     <row r="13" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>44</v>
@@ -4193,25 +4200,25 @@
     </row>
     <row r="14" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -4222,25 +4229,25 @@
     </row>
     <row r="15" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>44</v>
@@ -4251,25 +4258,25 @@
     </row>
     <row r="16" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>44</v>
@@ -4279,180 +4286,180 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>175</v>
+      <c r="A17" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
-        <v>179</v>
+      <c r="A18" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
-        <v>185</v>
+      <c r="A19" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>190</v>
+      <c r="A20" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>423</v>
-      </c>
       <c r="G20" s="4" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>195</v>
+      <c r="A21" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>326</v>
+        <v>427</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
@@ -4460,28 +4467,28 @@
     </row>
     <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
@@ -4489,28 +4496,28 @@
     </row>
     <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
@@ -4518,28 +4525,28 @@
     </row>
     <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
@@ -4547,25 +4554,25 @@
     </row>
     <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>45</v>
@@ -4575,26 +4582,26 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
-        <v>223</v>
+      <c r="A27" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>45</v>
@@ -4604,26 +4611,26 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>227</v>
+      <c r="A28" s="4" t="s">
+        <v>218</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>45</v>
@@ -4633,26 +4640,26 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
-        <v>233</v>
+      <c r="A29" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>45</v>
@@ -4662,26 +4669,26 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>237</v>
+      <c r="A30" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>45</v>
@@ -4691,26 +4698,26 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
-        <v>325</v>
+      <c r="A31" s="6" t="s">
+        <v>308</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>45</v>
@@ -4721,25 +4728,25 @@
     </row>
     <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>45</v>
+        <v>387</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>45</v>
@@ -4750,28 +4757,28 @@
     </row>
     <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>404</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
@@ -4779,28 +4786,28 @@
     </row>
     <row r="34" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
@@ -4808,28 +4815,28 @@
     </row>
     <row r="35" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
@@ -4837,118 +4844,118 @@
     </row>
     <row r="36" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
-        <v>430</v>
+      <c r="A37" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>228</v>
+        <v>434</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>232</v>
+        <v>438</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>431</v>
+      <c r="A38" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>234</v>
+        <v>431</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>235</v>
+        <v>432</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>236</v>
+        <v>433</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="I38" s="5">
         <v>3</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
-        <v>432</v>
+      <c r="A39" s="6" t="s">
+        <v>414</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -4990,11 +4997,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
@@ -5002,7 +5009,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="25" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -5012,11 +5019,11 @@
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="9" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -5024,7 +5031,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="24" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -5034,51 +5041,51 @@
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>request!B2</f>
@@ -5150,7 +5157,7 @@
     </row>
     <row r="5" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>request!B3</f>
@@ -5219,7 +5226,7 @@
     </row>
     <row r="6" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B6" s="15" t="str">
         <f>request!B4</f>
@@ -5288,7 +5295,7 @@
     </row>
     <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B7" s="15" t="str">
         <f>request!B5</f>
@@ -5356,7 +5363,7 @@
     </row>
     <row r="8" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B8" s="15" t="str">
         <f>request!B6</f>
@@ -5426,7 +5433,7 @@
     </row>
     <row r="9" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B9" s="15" t="str">
         <f>request!B7</f>
@@ -5492,7 +5499,7 @@
     </row>
     <row r="10" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B10" s="15" t="str">
         <f>request!B8</f>
@@ -5551,7 +5558,7 @@
     </row>
     <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B11" s="15" t="str">
         <f>request!B10</f>
@@ -5610,7 +5617,7 @@
     </row>
     <row r="12" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B12" s="15" t="str">
         <f>request!B11</f>
@@ -5669,7 +5676,7 @@
     </row>
     <row r="13" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B13" s="15" t="str">
         <f>request!B12</f>
@@ -5728,7 +5735,7 @@
     </row>
     <row r="14" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B14" s="15" t="str">
         <f>request!B13</f>
@@ -5787,7 +5794,7 @@
     </row>
     <row r="15" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B15" s="15" t="str">
         <f>request!B14</f>
@@ -5846,7 +5853,7 @@
     </row>
     <row r="16" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B16" s="15" t="str">
         <f>request!B15</f>
@@ -5905,7 +5912,7 @@
     </row>
     <row r="17" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B17" s="15" t="str">
         <f>request!B16</f>
@@ -5964,7 +5971,7 @@
     </row>
     <row r="18" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B18" s="15" t="str">
         <f>request!B17</f>
@@ -6032,7 +6039,7 @@
     </row>
     <row r="19" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>request!B18</f>
@@ -6091,7 +6098,7 @@
     </row>
     <row r="20" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B20" s="15" t="str">
         <f>request!B19</f>
@@ -6157,7 +6164,7 @@
     </row>
     <row r="21" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B21" s="15" t="str">
         <f>request!B21</f>
@@ -6213,7 +6220,7 @@
       </c>
       <c r="M21" s="4" t="str">
         <f>request!G21</f>
-        <v>複数のクラスで定義出来るようにするために、カバレッジを[目標値]以上にする</v>
+        <v>複数のクラスで定義出来るようにするために、ポリモフィズム使用率を[目標値]以上にする</v>
       </c>
       <c r="N21" s="4" t="str">
         <f>request!H21</f>
@@ -6222,7 +6229,7 @@
     </row>
     <row r="22" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B22" s="15" t="str">
         <f>request!B22</f>
@@ -6281,7 +6288,7 @@
     </row>
     <row r="23" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B23" s="15" t="str">
         <f>request!B25</f>
@@ -6340,7 +6347,7 @@
     </row>
     <row r="24" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B24" s="15" t="str">
         <f>request!B26</f>
@@ -6399,7 +6406,7 @@
     </row>
     <row r="25" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>request!B27</f>
@@ -6458,7 +6465,7 @@
     </row>
     <row r="26" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B26" s="15" t="str">
         <f>request!B28</f>
@@ -6517,7 +6524,7 @@
     </row>
     <row r="27" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>request!B29</f>
@@ -6576,7 +6583,7 @@
     </row>
     <row r="28" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>request!B30</f>
@@ -6633,7 +6640,7 @@
     </row>
     <row r="29" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>request!B31</f>
@@ -6690,7 +6697,7 @@
     </row>
     <row r="30" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B30" s="15" t="str">
         <f>request!B32</f>
@@ -6749,7 +6756,7 @@
     </row>
     <row r="31" spans="1:14" ht="248.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B31" s="15" t="str">
         <f>request!B34</f>
@@ -6808,7 +6815,7 @@
     </row>
     <row r="32" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B32" s="15" t="str">
         <f>request!B35</f>
@@ -6875,7 +6882,7 @@
     </row>
     <row r="33" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B33" s="15" t="str">
         <f>request!B36</f>
@@ -6934,7 +6941,7 @@
     </row>
     <row r="34" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B34" s="15" t="str">
         <f>request!B37</f>
@@ -7005,7 +7012,7 @@
     </row>
     <row r="35" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B35" s="15" t="str">
         <f>request!B38</f>
@@ -7064,7 +7071,7 @@
     </row>
     <row r="36" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="15" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="B36" s="15" t="str">
         <f>request!B39</f>
